--- a/notes/Q2 results vy coverage.xlsx
+++ b/notes/Q2 results vy coverage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="120">
   <si>
     <t xml:space="preserve">case of the </t>
   </si>
@@ -306,6 +306,84 @@
   </si>
   <si>
     <t xml:space="preserve"> 567.59    0.08  567.67 </t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>ngram+word</t>
+  </si>
+  <si>
+    <t>ngram-model</t>
+  </si>
+  <si>
+    <t>[1] "of the"</t>
+  </si>
+  <si>
+    <t>[1] "the world"</t>
+  </si>
+  <si>
+    <t>[1] "the most"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.02    0.00    0.03 </t>
+  </si>
+  <si>
+    <t>[1] "the best" "the fact"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.01    0.00    0.01 </t>
+  </si>
+  <si>
+    <t>[1] "the end"</t>
+  </si>
+  <si>
+    <t>[1] "my way"</t>
+  </si>
+  <si>
+    <t>[1] "some time"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00    0.02    0.02 </t>
+  </si>
+  <si>
+    <t>[1] "little brother"</t>
+  </si>
+  <si>
+    <t>[1] "the day"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00    0.01    0.02 </t>
+  </si>
+  <si>
+    <t>[1] "be a"</t>
+  </si>
+  <si>
+    <t>[1] "case of the"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.03    0.01    0.05 </t>
+  </si>
+  <si>
+    <t>[1] "mean the world"</t>
+  </si>
+  <si>
+    <t>[1] "me the happiest"</t>
+  </si>
+  <si>
+    <t>character(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.02    0.02    0.03 </t>
+  </si>
+  <si>
+    <t>[1] "on my way"</t>
+  </si>
+  <si>
+    <t>[1] "quite some time"</t>
+  </si>
+  <si>
+    <t>[1] "must be a"</t>
   </si>
 </sst>
 </file>
@@ -649,13 +727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,1135 +742,1378 @@
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.5</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.6</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.7</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>0.99</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="J4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>497</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>497</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>497</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>102</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>102</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <v>102</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="1">
         <v>102</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5" s="1">
         <v>497</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="J8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>56923</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>300</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>300</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>56923</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>201</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>201</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>201</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="J12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>284</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>284</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>284</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>284</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>284</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <v>28</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <v>284</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="J15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+      <c r="J16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>228</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>277</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>277</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>228</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <v>277</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <v>277</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <v>277</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <v>277</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="J19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+      <c r="J20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>5619</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>8207</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>8207</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>5619</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>8207</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <v>8207</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I21" s="1">
         <v>8207</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="J23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
+      <c r="J24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
         <v>2348</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>2348</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>2348</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>35</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>35</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <v>35</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
         <v>35</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I25" s="1">
         <v>2348</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="J27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
+      <c r="J28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
         <v>371</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>371</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>371</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>43</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F29" s="1">
         <v>43</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G29" s="1">
         <v>43</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="1">
         <v>43</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I29" s="1">
         <v>371</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="J31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
+      <c r="J32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
         <v>3515</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>17</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>33</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>3515</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>17</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G33" s="1">
         <v>33</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H33" s="1">
         <v>33</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I33" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="J35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
+      <c r="J36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
         <v>951</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <v>951</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>951</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <v>951</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F37" s="1">
         <v>951</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G37" s="1">
         <v>951</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H37" s="1">
         <v>951</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I37" s="1">
         <v>951</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="J39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
+      <c r="J40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
         <v>745</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>745</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>745</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>93</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F41" s="1">
         <v>93</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G41" s="1">
         <v>93</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H41" s="1">
         <v>93</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I41" s="1">
         <v>745</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Q2 results vy coverage.xlsx
+++ b/notes/Q2 results vy coverage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="176">
   <si>
     <t xml:space="preserve">case of the </t>
   </si>
@@ -384,6 +384,174 @@
   </si>
   <si>
     <t>[1] "must be a"</t>
+  </si>
+  <si>
+    <t>[1] "the"</t>
+  </si>
+  <si>
+    <t>[1] "first"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0       0       0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00    0.00    0.03 </t>
+  </si>
+  <si>
+    <t>[1] "life"</t>
+  </si>
+  <si>
+    <t>[1] "of"</t>
+  </si>
+  <si>
+    <t>[1] "bit"</t>
+  </si>
+  <si>
+    <t>[1] "a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.48    0.00    0.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.02    0.01    0.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.45    0.00    0.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.57    0.00    0.56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.04    0.02    0.07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.03    0.03    0.06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.49    0.01    0.67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.1     0.0     0.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.45    0.02    1.47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.11    0.00    0.11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.06    0.02    0.08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.08    0.03    0.11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.06    0.02    0.22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.05    0.00    0.08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.37    0.00    0.38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.05    0.01    0.06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.03    0.02    0.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.77    0.00    3.82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.43    0.04    1.47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.19    0.03    1.22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.44    0.04    0.49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.45    0.03    0.48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.47    0.04    0.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.48    0.00    0.48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.49    0.01    0.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.48    0.02    0.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.46    0.04    0.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.78    0.06    0.85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.51    0.02    0.53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.99    0.04    1.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.15    0.00    0.16 </t>
+  </si>
+  <si>
+    <t>[1] "at the end"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.54    0.02    0.54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.75    0.06    0.81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.23    0.03    0.27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.42    0.02    0.44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.22    0.03    0.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.33    0.03    1.53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.42    0.05    0.47 </t>
+  </si>
+  <si>
+    <t>[1] "the best"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.48    0.03    0.51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.85    0.07    0.91 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.43    0.03    0.47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.54    0.06    0.61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.50    0.04    0.53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.44    0.03    0.47 </t>
+  </si>
+  <si>
+    <t>backoff-ngram-model</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
   </si>
 </sst>
 </file>
@@ -727,13 +895,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,9 +912,14 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="9" width="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -777,8 +950,35 @@
       <c r="J1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -812,8 +1012,32 @@
       <c r="K2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -847,8 +1071,32 @@
       <c r="K3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3">
+        <v>0.6</v>
+      </c>
+      <c r="N3">
+        <v>0.6</v>
+      </c>
+      <c r="O3">
+        <v>0.7</v>
+      </c>
+      <c r="P3">
+        <v>0.7</v>
+      </c>
+      <c r="Q3">
+        <v>0.99</v>
+      </c>
+      <c r="R3">
+        <v>0.99</v>
+      </c>
+      <c r="S3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -882,8 +1130,32 @@
       <c r="K4" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>497</v>
       </c>
@@ -910,8 +1182,16 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -942,8 +1222,32 @@
       <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -974,8 +1278,32 @@
       <c r="K7" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1009,8 +1337,32 @@
       <c r="K8" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>56923</v>
       </c>
@@ -1037,8 +1389,16 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1069,8 +1429,32 @@
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1101,8 +1485,32 @@
       <c r="K11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1136,8 +1544,32 @@
       <c r="K12" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>284</v>
       </c>
@@ -1164,8 +1596,16 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1196,8 +1636,32 @@
       <c r="K14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1228,8 +1692,32 @@
       <c r="K15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1263,8 +1751,32 @@
       <c r="K16" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>228</v>
       </c>
@@ -1291,8 +1803,16 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1323,8 +1843,32 @@
       <c r="K18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1899,32 @@
       <c r="K19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1390,8 +1958,32 @@
       <c r="K20" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>5619</v>
       </c>
@@ -1418,8 +2010,16 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1450,8 +2050,32 @@
       <c r="K22" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1482,8 +2106,32 @@
       <c r="K23" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1517,8 +2165,32 @@
       <c r="K24" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>2348</v>
       </c>
@@ -1545,8 +2217,16 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1577,8 +2257,32 @@
       <c r="K26" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1609,8 +2313,32 @@
       <c r="K27" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1644,8 +2372,32 @@
       <c r="K28" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>371</v>
       </c>
@@ -1672,8 +2424,16 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1704,8 +2464,32 @@
       <c r="K30" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1736,8 +2520,32 @@
       <c r="K31" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1771,8 +2579,30 @@
       <c r="K32" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>3515</v>
       </c>
@@ -1797,8 +2627,16 @@
       <c r="I33" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1829,8 +2667,30 @@
       <c r="K34" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1861,8 +2721,30 @@
       <c r="K35" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +2778,32 @@
       <c r="K36" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>951</v>
       </c>
@@ -1924,8 +2830,16 @@
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1956,8 +2870,32 @@
       <c r="K38" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
@@ -1988,8 +2926,32 @@
       <c r="K39" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -2023,8 +2985,32 @@
       <c r="K40" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>745</v>
       </c>
@@ -2051,8 +3037,16 @@
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
@@ -2083,8 +3077,32 @@
       <c r="K42" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2114,6 +3132,30 @@
       </c>
       <c r="K43" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
